--- a/data_excel/517.xlsx
+++ b/data_excel/517.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>放學</t>
   </si>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +489,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,13 +536,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -552,13 +553,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -572,13 +573,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -592,46 +593,52 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
